--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +768,7 @@
     <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -776,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -790,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -804,7 +810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -818,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -832,7 +838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -846,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -860,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -874,87 +880,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>customer_code</t>
   </si>
 </sst>
 </file>
@@ -753,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +926,48 @@
       </c>
       <c r="D11" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>type</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>customer_code</t>
+  </si>
+  <si>
+    <t>customer-note</t>
+  </si>
+  <si>
+    <t>customer-activity</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -968,6 +974,34 @@
       </c>
       <c r="D14" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
@@ -12,12 +12,12 @@
     <sheet name="extras" sheetId="11" r:id="rId3"/>
     <sheet name="conditionals" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>type</t>
   </si>
@@ -134,6 +134,33 @@
   </si>
   <si>
     <t>customer-activity</t>
+  </si>
+  <si>
+    <t>customer_notes</t>
+  </si>
+  <si>
+    <t>customer_activities</t>
+  </si>
+  <si>
+    <t>customer_contacts</t>
+  </si>
+  <si>
+    <t>cellphone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>reprogrammed</t>
+  </si>
+  <si>
+    <t>customer-contact</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created_at</t>
   </si>
 </sst>
 </file>
@@ -765,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,35 +1005,175 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D23" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>created_at</t>
+  </si>
+  <si>
+    <t>customer_status</t>
+  </si>
+  <si>
+    <t>contact_type</t>
+  </si>
+  <si>
+    <t>customer_type</t>
   </si>
 </sst>
 </file>
@@ -792,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,71 +1112,197 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>customer_type</t>
+  </si>
+  <si>
+    <t>triggered</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,15 +1297,43 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>triggered</t>
+  </si>
+  <si>
+    <t>seller_user_id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,21 +1169,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>25</v>
@@ -1185,10 +1197,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>8</v>
@@ -1202,13 +1214,13 @@
         <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,13 +1228,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1242,7 @@
         <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>17</v>
@@ -1244,13 +1256,13 @@
         <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,13 +1270,13 @@
         <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,7 +1284,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>17</v>
@@ -1286,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,7 +1312,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>8</v>
@@ -1314,26 +1326,138 @@
         <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>30</v>
       </c>
     </row>
